--- a/Civilworks cost/Expenditure Preparations/cw_exp_detail.xlsx
+++ b/Civilworks cost/Expenditure Preparations/cw_exp_detail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Expenditure Preparations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Expenditure Preparations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="exp_details" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -518,21 +518,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C93"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="8.88671875" style="2"/>
+    <col min="3" max="6" width="8.85546875" style="2"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -577,14 +577,14 @@
       <c r="G2">
         <v>409</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2">
-        <v>3645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -603,14 +603,14 @@
       <c r="G3">
         <v>404</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2">
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -629,14 +629,14 @@
       <c r="G4">
         <v>409</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -655,14 +655,14 @@
       <c r="G5">
         <v>409</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -681,14 +681,14 @@
       <c r="G6">
         <v>409</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2">
-        <v>3683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -707,14 +707,14 @@
       <c r="G7">
         <v>405</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="2">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -733,14 +733,14 @@
       <c r="G8">
         <v>409</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="2">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -759,14 +759,14 @@
       <c r="G9">
         <v>409</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="2">
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -785,14 +785,14 @@
       <c r="G10">
         <v>404</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>3704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -811,14 +811,14 @@
       <c r="G11">
         <v>409</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="2">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -837,14 +837,14 @@
       <c r="G12">
         <v>404</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="2">
-        <v>3706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -863,14 +863,14 @@
       <c r="G13">
         <v>409</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="2">
-        <v>3708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -889,14 +889,14 @@
       <c r="G14">
         <v>404</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="2">
-        <v>3709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,14 +915,14 @@
       <c r="G15">
         <v>409</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="2">
-        <v>3709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -941,14 +941,14 @@
       <c r="G16">
         <v>404</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="2">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -967,14 +967,14 @@
       <c r="G17">
         <v>404</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="2">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -993,14 +993,14 @@
       <c r="G18">
         <v>409</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="2">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1019,14 +1019,14 @@
       <c r="G19">
         <v>409</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="2">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1045,14 +1045,14 @@
       <c r="G20">
         <v>409</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="2">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1071,14 +1071,14 @@
       <c r="G21">
         <v>409</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="2">
-        <v>3732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1097,14 +1097,14 @@
       <c r="G22">
         <v>404</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="2">
-        <v>3743</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1123,14 +1123,14 @@
       <c r="G23">
         <v>409</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="2">
-        <v>3743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1149,14 +1149,14 @@
       <c r="G24">
         <v>404</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="2">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1175,14 +1175,14 @@
       <c r="G25">
         <v>409</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="2">
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1201,14 +1201,14 @@
       <c r="G26">
         <v>404</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="2">
-        <v>3747</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1227,14 +1227,14 @@
       <c r="G27">
         <v>409</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="2">
-        <v>3747</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1253,14 +1253,14 @@
       <c r="G28">
         <v>406</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="2">
-        <v>3757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1279,14 +1279,14 @@
       <c r="G29">
         <v>404</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="2">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1305,14 +1305,14 @@
       <c r="G30">
         <v>409</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="2">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1331,14 +1331,14 @@
       <c r="G31">
         <v>409</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="2">
-        <v>3760</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1357,14 +1357,14 @@
       <c r="G32">
         <v>409</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="2">
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1383,14 +1383,14 @@
       <c r="G33">
         <v>404</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="2">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1409,14 +1409,14 @@
       <c r="G34">
         <v>409</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I34" s="2">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1435,14 +1435,14 @@
       <c r="G35">
         <v>405</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="2">
-        <v>3769</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1461,14 +1461,14 @@
       <c r="G36">
         <v>404</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="2">
-        <v>3773</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1487,14 +1487,14 @@
       <c r="G37">
         <v>409</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="2">
-        <v>3773</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1513,14 +1513,14 @@
       <c r="G38">
         <v>404</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1539,14 +1539,14 @@
       <c r="G39">
         <v>409</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="2">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1565,14 +1565,14 @@
       <c r="G40">
         <v>405</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I40" s="2">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1591,14 +1591,14 @@
       <c r="G41">
         <v>405</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I41" s="2">
-        <v>3791</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1617,14 +1617,14 @@
       <c r="G42">
         <v>404</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I42" s="2">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1643,14 +1643,14 @@
       <c r="G43">
         <v>405</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I43" s="2">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1669,14 +1669,14 @@
       <c r="G44">
         <v>409</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="2">
-        <v>3796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1695,14 +1695,14 @@
       <c r="G45">
         <v>409</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="2">
-        <v>3797</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1721,14 +1721,14 @@
       <c r="G46">
         <v>404</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I46" s="2">
-        <v>3829</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1747,14 +1747,14 @@
       <c r="G47">
         <v>405</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="2">
-        <v>3835</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1773,14 +1773,14 @@
       <c r="G48">
         <v>409</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I48" s="2">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1799,14 +1799,14 @@
       <c r="G49">
         <v>409</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I49" s="2">
-        <v>3847</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1825,14 +1825,14 @@
       <c r="G50">
         <v>405</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I50" s="2">
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1851,14 +1851,14 @@
       <c r="G51">
         <v>404</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I51" s="2">
-        <v>3852</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1877,14 +1877,14 @@
       <c r="G52">
         <v>404</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I52" s="2">
-        <v>3857</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1903,14 +1903,14 @@
       <c r="G53">
         <v>404</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I53" s="2">
-        <v>3858</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1929,14 +1929,14 @@
       <c r="G54">
         <v>409</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I54" s="2">
-        <v>3858</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44</v>
       </c>
@@ -1955,14 +1955,14 @@
       <c r="G55">
         <v>408</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="2">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1981,14 +1981,14 @@
       <c r="G56">
         <v>404</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I56" s="2">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2007,14 +2007,14 @@
       <c r="G57">
         <v>409</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I57" s="2">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2033,14 +2033,14 @@
       <c r="G58">
         <v>404</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="2">
-        <v>3893</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2059,14 +2059,14 @@
       <c r="G59">
         <v>409</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I59" s="2">
-        <v>3893</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2085,14 +2085,14 @@
       <c r="G60">
         <v>409</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I60" s="2">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2111,14 +2111,14 @@
       <c r="G61">
         <v>409</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I61" s="2">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2137,14 +2137,14 @@
       <c r="G62">
         <v>405</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I62" s="2">
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -2163,14 +2163,14 @@
       <c r="G63">
         <v>404</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I63" s="2">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -2189,14 +2189,14 @@
       <c r="G64">
         <v>409</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I64" s="2">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2215,14 +2215,14 @@
       <c r="G65">
         <v>404</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I65" s="2">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2241,14 +2241,14 @@
       <c r="G66">
         <v>409</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I66" s="2">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>62</v>
       </c>
@@ -2267,14 +2267,14 @@
       <c r="G67">
         <v>404</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I67" s="2">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2293,14 +2293,14 @@
       <c r="G68">
         <v>404</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I68" s="2">
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2319,14 +2319,14 @@
       <c r="G69">
         <v>404</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I69" s="2">
-        <v>3947</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2345,14 +2345,14 @@
       <c r="G70">
         <v>409</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I70" s="2">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2371,583 +2371,11 @@
       <c r="G71">
         <v>404</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I71" s="2">
-        <v>3952</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1902290.11</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2">
-        <v>8907472.5199999996</v>
-      </c>
-      <c r="F72" s="2">
-        <v>10809762.630000001</v>
-      </c>
-      <c r="G72">
-        <v>409</v>
-      </c>
-      <c r="H72" t="s">
-        <v>42</v>
-      </c>
-      <c r="I72" s="2">
-        <v>3952</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>81</v>
-      </c>
-      <c r="C73" s="2">
-        <v>137423.64000000001</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2">
-        <v>844173.81</v>
-      </c>
-      <c r="F73" s="2">
-        <v>981597.45000000007</v>
-      </c>
-      <c r="G73">
-        <v>404</v>
-      </c>
-      <c r="H73" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="2">
-        <v>3953</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>82</v>
-      </c>
-      <c r="C74" s="2">
-        <v>698772</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2">
-        <v>4292456.55</v>
-      </c>
-      <c r="F74" s="2">
-        <v>4991228.55</v>
-      </c>
-      <c r="G74">
-        <v>409</v>
-      </c>
-      <c r="H74" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" s="2">
-        <v>3953</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="C75" s="2">
-        <v>464646.98</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2854260.02</v>
-      </c>
-      <c r="F75" s="2">
-        <v>3318907</v>
-      </c>
-      <c r="G75">
-        <v>404</v>
-      </c>
-      <c r="H75" t="s">
-        <v>42</v>
-      </c>
-      <c r="I75" s="2">
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>83</v>
-      </c>
-      <c r="C76" s="2">
-        <v>78728.22</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2">
-        <v>483616.18</v>
-      </c>
-      <c r="F76" s="2">
-        <v>562344.4</v>
-      </c>
-      <c r="G76">
-        <v>402</v>
-      </c>
-      <c r="H76" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" s="2">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>84</v>
-      </c>
-      <c r="C77" s="2">
-        <v>55986.06</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-      <c r="E77" s="2">
-        <v>343914.39</v>
-      </c>
-      <c r="F77" s="2">
-        <v>399900.45</v>
-      </c>
-      <c r="G77">
-        <v>404</v>
-      </c>
-      <c r="H77" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" s="2">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>85</v>
-      </c>
-      <c r="C78" s="2">
-        <v>786222.96</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2">
-        <v>4829655.34</v>
-      </c>
-      <c r="F78" s="2">
-        <v>5615878.2999999998</v>
-      </c>
-      <c r="G78">
-        <v>405</v>
-      </c>
-      <c r="H78" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" s="2">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>86</v>
-      </c>
-      <c r="C79" s="2">
-        <v>269003.96000000002</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1652452.89</v>
-      </c>
-      <c r="F79" s="2">
-        <v>1921456.85</v>
-      </c>
-      <c r="G79">
-        <v>409</v>
-      </c>
-      <c r="H79" t="s">
-        <v>42</v>
-      </c>
-      <c r="I79" s="2">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>75</v>
-      </c>
-      <c r="C80" s="2">
-        <v>78586.89</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2">
-        <v>525927.68000000005</v>
-      </c>
-      <c r="F80" s="2">
-        <v>604514.57000000007</v>
-      </c>
-      <c r="G80">
-        <v>404</v>
-      </c>
-      <c r="H80" t="s">
-        <v>42</v>
-      </c>
-      <c r="I80" s="2">
-        <v>3956</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>76</v>
-      </c>
-      <c r="C81" s="2">
-        <v>980703.68</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2">
-        <v>6563170.75</v>
-      </c>
-      <c r="F81" s="2">
-        <v>7543874.4299999997</v>
-      </c>
-      <c r="G81">
-        <v>405</v>
-      </c>
-      <c r="H81" t="s">
-        <v>42</v>
-      </c>
-      <c r="I81" s="2">
-        <v>3956</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>77</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1895008.27</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2">
-        <v>11640765.1</v>
-      </c>
-      <c r="F82" s="2">
-        <v>13535773.369999999</v>
-      </c>
-      <c r="G82">
-        <v>404</v>
-      </c>
-      <c r="H82" t="s">
-        <v>42</v>
-      </c>
-      <c r="I82" s="2">
-        <v>3957</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>78</v>
-      </c>
-      <c r="C83" s="2">
-        <v>974915.43</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <v>5988766.2000000002</v>
-      </c>
-      <c r="F83" s="2">
-        <v>6963681.6299999999</v>
-      </c>
-      <c r="G83">
-        <v>409</v>
-      </c>
-      <c r="H83" t="s">
-        <v>42</v>
-      </c>
-      <c r="I83" s="2">
-        <v>3957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>79</v>
-      </c>
-      <c r="C84" s="2">
-        <v>1202749.29</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2">
-        <v>7388317.0999999996</v>
-      </c>
-      <c r="F84" s="2">
-        <v>8591066.3900000006</v>
-      </c>
-      <c r="G84">
-        <v>404</v>
-      </c>
-      <c r="H84" t="s">
-        <v>42</v>
-      </c>
-      <c r="I84" s="2">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>80</v>
-      </c>
-      <c r="C85" s="2">
-        <v>517631.19</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <v>3179734.42</v>
-      </c>
-      <c r="F85" s="2">
-        <v>3697365.61</v>
-      </c>
-      <c r="G85">
-        <v>409</v>
-      </c>
-      <c r="H85" t="s">
-        <v>42</v>
-      </c>
-      <c r="I85" s="2">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>71</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1152936.96</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>7082327.04</v>
-      </c>
-      <c r="F86" s="2">
-        <v>8235264</v>
-      </c>
-      <c r="G86">
-        <v>404</v>
-      </c>
-      <c r="H86" t="s">
-        <v>42</v>
-      </c>
-      <c r="I86" s="2">
-        <v>3959</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>72</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1705356.38</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
-        <v>10475760.619999999</v>
-      </c>
-      <c r="F87" s="2">
-        <v>12181117</v>
-      </c>
-      <c r="G87">
-        <v>404</v>
-      </c>
-      <c r="H87" t="s">
-        <v>42</v>
-      </c>
-      <c r="I87" s="2">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>73</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1652845.88</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>10153196.119999999</v>
-      </c>
-      <c r="F88" s="2">
-        <v>11806042</v>
-      </c>
-      <c r="G88">
-        <v>409</v>
-      </c>
-      <c r="H88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I88" s="2">
-        <v>3961</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>89</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1244400.33</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>7644173.4400000004</v>
-      </c>
-      <c r="F89" s="2">
-        <v>8888573.7699999996</v>
-      </c>
-      <c r="G89">
-        <v>404</v>
-      </c>
-      <c r="H89" t="s">
-        <v>42</v>
-      </c>
-      <c r="I89" s="2">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>90</v>
-      </c>
-      <c r="C90" s="2">
-        <v>579242.61</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>3558204.62</v>
-      </c>
-      <c r="F90" s="2">
-        <v>4137447.23</v>
-      </c>
-      <c r="G90">
-        <v>409</v>
-      </c>
-      <c r="H90" t="s">
-        <v>42</v>
-      </c>
-      <c r="I90" s="2">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>87</v>
-      </c>
-      <c r="C91" s="2">
-        <v>203601.74</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>569129.31000000006</v>
-      </c>
-      <c r="F91" s="2">
-        <v>772731.05</v>
-      </c>
-      <c r="G91">
-        <v>404</v>
-      </c>
-      <c r="H91" t="s">
-        <v>42</v>
-      </c>
-      <c r="I91" s="2">
-        <v>3963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>88</v>
-      </c>
-      <c r="C92" s="2">
-        <v>453505.62</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1267687.33</v>
-      </c>
-      <c r="F92" s="2">
-        <v>1721192.95</v>
-      </c>
-      <c r="G92">
-        <v>409</v>
-      </c>
-      <c r="H92" t="s">
-        <v>42</v>
-      </c>
-      <c r="I92" s="2">
-        <v>3963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="C93" s="2">
-        <v>444288.74</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2729202.26</v>
-      </c>
-      <c r="F93" s="2">
-        <v>3173491</v>
-      </c>
-      <c r="G93">
-        <v>405</v>
-      </c>
-      <c r="H93" t="s">
-        <v>42</v>
-      </c>
-      <c r="I93" s="2">
-        <v>3976</v>
+        <v>5443</v>
       </c>
     </row>
   </sheetData>
